--- a/感想/20241203_I班_感想まとめ.xlsx
+++ b/感想/20241203_I班_感想まとめ.xlsx
@@ -1533,8 +1533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1589,222 +1589,226 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="E3" s="18">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="E4" s="18">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="6"/>
+        <v>58</v>
+      </c>
+      <c r="E5" s="18">
+        <v>2</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="E6" s="18">
+        <v>2</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="E7" s="18">
+        <v>2</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="18">
-        <v>2</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>66</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="18">
-        <v>2</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>69</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="E10" s="18"/>
-      <c r="F10" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="E12" s="18"/>
-      <c r="F12" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E13" s="18"/>
-      <c r="F13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="18">
-        <v>2</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>59</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
       <c r="D15" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="6" t="s">
@@ -1813,107 +1817,103 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E16" s="18"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="18">
-        <v>2</v>
-      </c>
+      <c r="E17" s="18"/>
       <c r="F17" s="6" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="D18" s="1"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E19" s="18"/>
-      <c r="F19" s="6"/>
+      <c r="F19" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="D20" s="1"/>
       <c r="E20" s="18"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="18">
-        <v>2</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>52</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
@@ -2546,7 +2546,7 @@
   </sheetData>
   <autoFilter ref="A1:F1">
     <sortState ref="A2:F23">
-      <sortCondition ref="C1"/>
+      <sortCondition ref="E1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1"/>
